--- a/medicine/Enfance/Beth_Fantaskey/Beth_Fantaskey.xlsx
+++ b/medicine/Enfance/Beth_Fantaskey/Beth_Fantaskey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beth Fantaskey, née en 1965, est une autrice américaine de bit-lit d'enfance et de jeunesse, de fantasy et de science-fiction, vivant en Pennsylvanie. Elle est professeur à l’université de Pennsylvanie. Traduite en de nombreuses langues, elle est publiée en français aux éditions du Masque.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beth Fantaskey a écrit son premier livre, Jessica’s guide to dating on the dark side, en 2006[1]. Il a été publié en 2009 aux États-Unis et traduit la même année sous le titre Comment se débarrasser d'un vampire amoureux aux éditions du Masque. Il a également été traduit en allemand (Der Vampir, den ich liebte), grec, italien, polonais (Przyrzeczeni) portugais du Brésil (Como Salvar Um Vampiro Apaixonado), etc.  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beth Fantaskey a écrit son premier livre, Jessica’s guide to dating on the dark side, en 2006. Il a été publié en 2009 aux États-Unis et traduit la même année sous le titre Comment se débarrasser d'un vampire amoureux aux éditions du Masque. Il a également été traduit en allemand (Der Vampir, den ich liebte), grec, italien, polonais (Przyrzeczeni) portugais du Brésil (Como Salvar Um Vampiro Apaixonado), etc.  
 Elle a publié en 2010 Jekel loves Hyde, en français Alchimie édité aussi aux éditions du Masque, et a donné en 2011 une suite à son best-seller : Jessica rules the dark side (en français Comment sauver un vampire amoureux), également publié au Masque.
 </t>
         </is>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Comment se débarrasser d'un vampire amoureux, Le Masque, 2009 ((en) Jessica’s guide to dating on the dark side, 2009)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Comment se débarrasser d'un vampire amoureux, Le Masque, 2009 ((en) Jessica’s guide to dating on the dark side, 2009)
 Alchimie, Le Masque, 2010 ((en) Jekel loves Hyde, 2010)
 Comment sauver un vampire amoureux, Le Masque, 2011 ((en) Jessica rules the dark side, 2011)
 (en) Wedding of Jess and Lucius, 2012
